--- a/classfiers/bloated/svm/smote/bloated-svm-default-results.xlsx
+++ b/classfiers/bloated/svm/smote/bloated-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4777448071216617</v>
+        <v>0.5346260387811634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7318181818181818</v>
+        <v>0.9601990049751243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5780969479353679</v>
+        <v>0.6868327402135231</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6452066115702479</v>
+        <v>0.6557263434073413</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9838709677419355</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5545454545454546</v>
+        <v>0.52</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7093023255813954</v>
+        <v>0.6797385620915032</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8956818181818182</v>
+        <v>0.8455721393034826</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.946969696969697</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7102272727272728</v>
+        <v>0.6491803278688525</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9563429752066116</v>
+        <v>0.9513432835820896</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5799086757990868</v>
+        <v>0.5771144278606966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7341040462427746</v>
+        <v>0.7318611987381703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9923204649232047</v>
+        <v>0.9739552238805971</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6904761904761904</v>
+        <v>0.6732673267326732</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9982772934827728</v>
+        <v>0.9848258706467662</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8817170943666589</v>
+        <v>0.8917230514220009</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5923453715234537</v>
+        <v>0.611955223880597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6844413565926002</v>
+        <v>0.6841760311289444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8975658326729311</v>
+        <v>0.8822845721640553</v>
       </c>
     </row>
   </sheetData>
